--- a/data/gihun/dataset/대전시출산율모델.xlsx
+++ b/data/gihun/dataset/대전시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3402328589909444</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>773</v>
       </c>
       <c r="F81" t="n">
         <v>76.861</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.004275912662802289</v>
+      </c>
       <c r="H81" t="n">
         <v>45</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4243827160493827</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>648</v>
       </c>
       <c r="F82" t="n">
         <v>76.937</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.004250042601835514</v>
+      </c>
       <c r="H82" t="n">
         <v>44.9</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.3631713554987212</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>782</v>
       </c>
       <c r="F83" t="n">
         <v>77.392</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.004224172540868739</v>
+      </c>
       <c r="H83" t="n">
         <v>44.7</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.316711590296496</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>742</v>
       </c>
       <c r="F84" t="n">
         <v>77.54300000000001</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.004198302479901965</v>
+      </c>
       <c r="H84" t="n">
         <v>44.5</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.2620087336244541</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>916</v>
       </c>
       <c r="F85" t="n">
         <v>77.69499999999999</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.00417243241893519</v>
+      </c>
       <c r="H85" t="n">
         <v>44.4</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3616504854368932</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>824</v>
       </c>
       <c r="F86" t="n">
         <v>77.54300000000001</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.004146562357968415</v>
+      </c>
       <c r="H86" t="n">
         <v>44.3</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4599358974358974</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>624</v>
       </c>
       <c r="F87" t="n">
         <v>77.84699999999999</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.004120692297001641</v>
+      </c>
       <c r="H87" t="n">
         <v>44.2</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.4306784660766962</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>678</v>
       </c>
       <c r="F88" t="n">
         <v>78.453</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.004094822236034866</v>
+      </c>
       <c r="H88" t="n">
         <v>44.2</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.5</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>540</v>
       </c>
       <c r="F89" t="n">
         <v>78.529</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.004068952175068091</v>
+      </c>
       <c r="H89" t="n">
         <v>44.2</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>630</v>
       </c>
       <c r="F90" t="n">
         <v>78.074</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.004043082114101316</v>
+      </c>
       <c r="H90" t="n">
         <v>44.3</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3141640042598509</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>939</v>
       </c>
       <c r="F91" t="n">
         <v>77.84699999999999</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.004017212053134541</v>
+      </c>
       <c r="H91" t="n">
         <v>44.5</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1406</v>
       </c>
       <c r="F92" t="n">
         <v>78.074</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003991341992167767</v>
+      </c>
       <c r="H92" t="n">
         <v>44.7</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3190529875986471</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>887</v>
       </c>
       <c r="F93" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003965471931200992</v>
+      </c>
       <c r="H93" t="n">
         <v>45</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3222929936305732</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E94" t="n">
         <v>785</v>
       </c>
       <c r="F94" t="n">
         <v>78.605</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003941480093969459</v>
+      </c>
       <c r="H94" t="n">
         <v>45.2</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3647214854111406</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.299999999999999</v>
+      </c>
       <c r="E95" t="n">
         <v>754</v>
       </c>
       <c r="F95" t="n">
         <v>79.06</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003917488256737926</v>
+      </c>
       <c r="H95" t="n">
         <v>45.3</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3740053050397878</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.15</v>
+      </c>
       <c r="E96" t="n">
         <v>754</v>
       </c>
       <c r="F96" t="n">
         <v>79.28700000000001</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003893496419506393</v>
+      </c>
       <c r="H96" t="n">
         <v>45.3</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.2944269190325973</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9</v>
+      </c>
       <c r="E97" t="n">
         <v>951</v>
       </c>
       <c r="F97" t="n">
         <v>79.43899999999999</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.00386950458227486</v>
+      </c>
       <c r="H97" t="n">
         <v>45.3</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3603034134007586</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8.85</v>
+      </c>
       <c r="E98" t="n">
         <v>791</v>
       </c>
       <c r="F98" t="n">
         <v>79.43899999999999</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003845512745043327</v>
+      </c>
       <c r="H98" t="n">
         <v>45.3</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4234972677595629</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="E99" t="n">
         <v>732</v>
       </c>
       <c r="F99" t="n">
         <v>79.96899999999999</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003821520907811794</v>
+      </c>
       <c r="H99" t="n">
         <v>45.4</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4295676429567643</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.549999999999999</v>
+      </c>
       <c r="E100" t="n">
         <v>717</v>
       </c>
       <c r="F100" t="n">
         <v>79.96899999999999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003797529070580261</v>
+      </c>
       <c r="H100" t="n">
         <v>45.4</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5209580838323353</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.4</v>
+      </c>
       <c r="E101" t="n">
         <v>501</v>
       </c>
       <c r="F101" t="n">
         <v>80.27200000000001</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003773537233348728</v>
+      </c>
       <c r="H101" t="n">
         <v>45.6</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4402173913043478</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>8.25</v>
+      </c>
       <c r="E102" t="n">
         <v>736</v>
       </c>
       <c r="F102" t="n">
         <v>80.42400000000001</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003749545396117195</v>
+      </c>
       <c r="H102" t="n">
         <v>45.7</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.313782991202346</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>8.1</v>
+      </c>
       <c r="E103" t="n">
         <v>1023</v>
       </c>
       <c r="F103" t="n">
         <v>80.349</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003725553558885662</v>
+      </c>
       <c r="H103" t="n">
         <v>45.9</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2535612535612536</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>7.949999999999999</v>
+      </c>
       <c r="E104" t="n">
         <v>1053</v>
       </c>
       <c r="F104" t="n">
         <v>80.72799999999999</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003701561721654129</v>
+      </c>
       <c r="H104" t="n">
         <v>46</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.55</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H273" t="n">
         <v>104.4</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.24</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H274" t="n">
         <v>104.1</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.12</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H275" t="n">
         <v>103.6</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>106.73</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H276" t="n">
         <v>103.4</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.42</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H277" t="n">
         <v>103</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.18</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H278" t="n">
         <v>102.7</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>108.43</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H279" t="n">
         <v>102.2</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.26</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H280" t="n">
         <v>101.3</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>108.54</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H281" t="n">
         <v>100.1</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>108.89</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H282" t="n">
         <v>98.5</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>108.82</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H283" t="n">
         <v>96.5</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>16.1</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.02</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H284" t="n">
         <v>93.59999999999999</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>109.85</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001493399993545226</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
